--- a/FestivalKalenderAT.xlsx
+++ b/FestivalKalenderAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamida013\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas BUSCH\lukasbuschdev_GIT\FestivalCalender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E15908A-0128-419A-9483-C0F683F206EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778B120-870D-4C11-A10C-035BA1ECD93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30270" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>DATUM 2024</t>
-  </si>
-  <si>
     <t>DAUER</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>Bruck an der Leitha</t>
+  </si>
+  <si>
+    <t>DATUM</t>
   </si>
 </sst>
 </file>
@@ -748,9 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -770,52 +768,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="5">
         <v>17000</v>
@@ -827,85 +825,85 @@
     </row>
     <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="H5" s="11">
         <v>900</v>
@@ -914,90 +912,90 @@
         <v>174.01</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="H6" s="5">
         <v>2000</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="H7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="5">
         <v>150000</v>
@@ -1006,33 +1004,33 @@
         <v>199.9</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="14">
         <v>0</v>
@@ -1041,55 +1039,55 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="5">
         <v>60000</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="11">
         <v>10000</v>
@@ -1098,30 +1096,30 @@
         <v>199</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="5">
         <v>25000</v>
@@ -1133,119 +1131,119 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="H13" s="11">
         <v>20000</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="H14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="H15" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="14">
         <v>129</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="5">
         <v>8000</v>
@@ -1257,25 +1255,25 @@
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="11">
         <v>21000</v>
@@ -1284,33 +1282,33 @@
         <v>129.63999999999999</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
         <v>99.95</v>
